--- a/LR3/table_2_26.xlsx
+++ b/LR3/table_2_26.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D0DD2F-1794-4A5B-A7E3-E7DB41591779}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,7 +14,7 @@
   <definedNames>
     <definedName name="holodays">holodays!$C$3:$C$16</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -116,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -271,28 +272,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="1"/>
       </left>
       <right style="thin">
@@ -336,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -367,15 +346,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -485,7 +462,7 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>44563</c:v>
+                  <c:v>44569</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>44575</c:v>
@@ -562,7 +539,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -575,7 +552,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -633,7 +609,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -694,7 +670,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>118</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>105</c:v>
@@ -774,7 +750,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -787,7 +763,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -906,7 +881,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>93</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>95</c:v>
@@ -983,7 +958,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -996,7 +971,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1192,7 +1166,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1205,7 +1179,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1363,7 +1336,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-848441888"/>
@@ -1438,7 +1411,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-848443520"/>
@@ -1481,7 +1454,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2054,7 +2027,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2148,6 +2127,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2183,6 +2179,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2358,11 +2371,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2370,11 +2383,11 @@
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
@@ -2391,7 +2404,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="22">
+      <c r="A1" s="20">
         <v>44562</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -2510,10 +2523,10 @@
       <c r="U3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="V3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="20"/>
+      <c r="W3" s="18"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="3"/>
     </row>
@@ -2527,32 +2540,32 @@
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13">
-        <v>44563</v>
+        <v>44569</v>
       </c>
       <c r="F4" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G4" s="13">
         <f t="shared" ref="G4:G11" si="0">WORKDAY.INTL(E4,F4,"0000000",holodays)</f>
-        <v>44579</v>
+        <v>44571</v>
       </c>
       <c r="H4" s="14">
         <f>I4-E4</f>
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="I4" s="13">
-        <v>44681</v>
+        <v>44572</v>
       </c>
       <c r="J4" s="14">
         <v>16</v>
       </c>
       <c r="K4" s="13">
         <f t="shared" ref="K4:K11" si="1">WORKDAY.INTL(I4,J4,"0000000",holodays)</f>
-        <v>44699</v>
+        <v>44588</v>
       </c>
       <c r="L4" s="14">
         <f>M4-I4</f>
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="M4" s="13">
         <v>44774</v>
@@ -2583,11 +2596,11 @@
       </c>
       <c r="U4" s="11">
         <f>R4+N4+J4+F4</f>
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="V4" s="11">
         <f>T4-U4</f>
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
@@ -2965,11 +2978,11 @@
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="V9" s="18">
+      <c r="V9" s="11">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="W9" s="19"/>
+      <c r="W9" s="4"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="3"/>
     </row>
@@ -4063,7 +4076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/LR3/table_2_26.xlsx
+++ b/LR3/table_2_26.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D0DD2F-1794-4A5B-A7E3-E7DB41591779}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326F6225-5AE0-4C41-880A-852B8986A79F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,15 @@
   <definedNames>
     <definedName name="holodays">holodays!$C$3:$C$16</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -462,7 +470,7 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>44569</c:v>
+                  <c:v>44568</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>44575</c:v>
@@ -539,7 +547,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -609,7 +617,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -670,7 +678,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>105</c:v>
@@ -750,7 +758,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -958,7 +966,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1166,7 +1174,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1336,7 +1344,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-848441888"/>
@@ -1411,7 +1419,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-848443520"/>
@@ -1454,7 +1462,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2374,8 +2382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2540,18 +2548,18 @@
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13">
-        <v>44569</v>
+        <v>44568</v>
       </c>
       <c r="F4" s="11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G4" s="13">
         <f t="shared" ref="G4:G11" si="0">WORKDAY.INTL(E4,F4,"0000000",holodays)</f>
-        <v>44571</v>
+        <v>44576</v>
       </c>
       <c r="H4" s="14">
         <f>I4-E4</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="13">
         <v>44572</v>
@@ -2592,15 +2600,15 @@
         <v>44905</v>
       </c>
       <c r="T4" s="11">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="U4" s="11">
         <f>R4+N4+J4+F4</f>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="V4" s="11">
         <f>T4-U4</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
@@ -2668,7 +2676,7 @@
         <v>44904</v>
       </c>
       <c r="T5" s="11">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="U5" s="11">
         <f t="shared" ref="U5:U11" si="7">R5+N5+J5+F5</f>
@@ -2676,7 +2684,7 @@
       </c>
       <c r="V5" s="11">
         <f t="shared" ref="V5:V11" si="8">T5-U5</f>
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
@@ -2744,7 +2752,7 @@
         <v>44903</v>
       </c>
       <c r="T6" s="11">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="U6" s="11">
         <f t="shared" si="7"/>
@@ -2752,7 +2760,7 @@
       </c>
       <c r="V6" s="11">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
@@ -2820,7 +2828,7 @@
         <v>44902</v>
       </c>
       <c r="T7" s="11">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="U7" s="11">
         <f t="shared" si="7"/>
@@ -2828,7 +2836,7 @@
       </c>
       <c r="V7" s="11">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
@@ -2896,7 +2904,7 @@
         <v>44901</v>
       </c>
       <c r="T8" s="11">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="U8" s="11">
         <f t="shared" si="7"/>
@@ -2904,7 +2912,7 @@
       </c>
       <c r="V8" s="11">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
@@ -2972,7 +2980,7 @@
         <v>44900</v>
       </c>
       <c r="T9" s="11">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="U9" s="11">
         <f t="shared" si="7"/>
@@ -2980,7 +2988,7 @@
       </c>
       <c r="V9" s="11">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="W9" s="4"/>
       <c r="X9" s="1"/>
@@ -3048,7 +3056,7 @@
         <v>44899</v>
       </c>
       <c r="T10" s="11">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="U10" s="11">
         <f t="shared" si="7"/>
@@ -3056,7 +3064,7 @@
       </c>
       <c r="V10" s="11">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
@@ -3124,7 +3132,7 @@
         <v>44898</v>
       </c>
       <c r="T11" s="11">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="U11" s="11">
         <f t="shared" si="7"/>
@@ -3132,7 +3140,7 @@
       </c>
       <c r="V11" s="11">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
@@ -4080,7 +4088,7 @@
   <dimension ref="C3:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
